--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_aglina_1_1.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_aglina_1_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>zh_CN</t>
   </si>
@@ -31,7 +31,11 @@
     <t>安洁莉娜发现了一个没写收件人的包裹，在可颂的帮助下，她努力寻找起了它的主人。</t>
   </si>
   <si>
-    <t xml:space="preserve">安洁莉娜发现了一个没写收件人的包裹，在可颂的帮助下，她努力寻找起了它的主人。
+    <t xml:space="preserve">受取人が書かれていない荷物を見つけたアンジェリーナはクロワッサンと共に、その持ち主を探し始める。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angelina finds an unaddressed package. With Croissant's help, she searches for its owner.
 </t>
   </si>
   <si>
@@ -422,10 +426,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
